--- a/results/EDLS/DAG-10/EDLS_min.xlsx
+++ b/results/EDLS/DAG-10/EDLS_min.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shekar\Desktop\All Projects\New Paltz\Agent based paper\DAGGeneration\results\EDLS\DAG-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDADCD6B-0FD1-4522-847C-6363471444D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C75B4F6-AE26-4548-90AB-BE1ED229F99D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="beta 0.5" sheetId="1" r:id="rId1"/>
-    <sheet name="beta 0.6" sheetId="2" r:id="rId2"/>
-    <sheet name="beta 0.7" sheetId="3" r:id="rId3"/>
-    <sheet name="beta 0.8" sheetId="4" r:id="rId4"/>
-    <sheet name="beta 0.9" sheetId="5" r:id="rId5"/>
-    <sheet name="beta 1.0" sheetId="6" r:id="rId6"/>
-    <sheet name="beta (0.85, 1.0)" sheetId="7" r:id="rId7"/>
+    <sheet name="beta 0.7 agents" sheetId="1" r:id="rId1"/>
+    <sheet name="beta 0.7 wo agents" sheetId="2" r:id="rId2"/>
+    <sheet name="beta 0.8 agents" sheetId="3" r:id="rId3"/>
+    <sheet name="beta 0.8 wo agents" sheetId="4" r:id="rId4"/>
+    <sheet name="beta 0.9 agents" sheetId="5" r:id="rId5"/>
+    <sheet name="beta 0.9 wo agents" sheetId="6" r:id="rId6"/>
+    <sheet name="beta 1.0 agents" sheetId="7" r:id="rId7"/>
+    <sheet name="beta 1.0 wo agents" sheetId="8" r:id="rId8"/>
+    <sheet name="beta (0.85, 1.0) agents" sheetId="9" r:id="rId9"/>
+    <sheet name="beta (0.85, 1.0) wo agents" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'beta (0.85, 1.0) agents'!$F$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'beta (0.85, 1.0) agents'!$F$2:$F$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'beta (0.85, 1.0) wo agents'!$B$2:$B$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'beta (0.85, 1.0) wo agents'!$F$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'beta (0.85, 1.0) wo agents'!$F$2:$F$24</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="28">
   <si>
     <t>Processor Combination</t>
   </si>
@@ -110,12 +120,6 @@
   </si>
   <si>
     <t>(None, None, 2)</t>
-  </si>
-  <si>
-    <t>DLS Total Energy</t>
-  </si>
-  <si>
-    <t>DLS Task Energy</t>
   </si>
 </sst>
 </file>
@@ -210,36 +214,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -251,7 +225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'beta 1.0'!$F$1</c:f>
+              <c:f>'beta (0.85, 1.0) wo agents'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -274,7 +248,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'beta 1.0'!$B$2:$B$24</c:f>
+              <c:f>'beta (0.85, 1.0) wo agents'!$B$2:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -351,78 +325,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'beta 1.0'!$F$2:$F$24</c:f>
+              <c:f>'beta (0.85, 1.0) wo agents'!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1739.568</c:v>
+                  <c:v>1644.3810000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1557.318</c:v>
+                  <c:v>1793.605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1113.8869999999999</c:v>
+                  <c:v>1411.6479999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1449.672</c:v>
+                  <c:v>1057.797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1118.145</c:v>
+                  <c:v>1284.5150000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1118.145</c:v>
+                  <c:v>1721.9870000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1032.6510000000001</c:v>
+                  <c:v>1425.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1118.145</c:v>
+                  <c:v>1065.779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1671.66</c:v>
+                  <c:v>1369.809</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1449.672</c:v>
+                  <c:v>1676.6690000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1134.001</c:v>
+                  <c:v>1327.018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1449.672</c:v>
+                  <c:v>748.36099999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2152.4380000000001</c:v>
+                  <c:v>1902.1179999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1831.9259999999999</c:v>
+                  <c:v>1623.105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1460.5840000000001</c:v>
+                  <c:v>1179.7650000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2140.6370000000002</c:v>
+                  <c:v>1583.3140000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1829.53</c:v>
+                  <c:v>1461.481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1413.1990000000001</c:v>
+                  <c:v>1373.2349999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1015.889</c:v>
+                  <c:v>1028.827</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1405.1110000000001</c:v>
+                  <c:v>744.45799999999986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2759.1119999999992</c:v>
+                  <c:v>2238.5880000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2115.152</c:v>
+                  <c:v>1588.683</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1408.807</c:v>
+                  <c:v>748.91599999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,7 +404,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7165-4CE4-9967-BAFC0CF850D2}"/>
+              <c16:uniqueId val="{00000000-64D4-4C8F-B25C-F78217033B24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -439,11 +413,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'beta 1.0'!$I$1</c:f>
+              <c:f>'beta (0.85, 1.0) agents'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DLS Total Energy</c:v>
+                  <c:v>Total Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -460,157 +434,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'beta 1.0'!$B$2:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>(0, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(0, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(0, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(0, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(0, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(0, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(0, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(0, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(0, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(0, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(0, None, 2)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(0, None, None)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(None, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(None, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(None, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>(None, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>(None, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>(None, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>(None, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>(None, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>(None, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>(None, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>(None, None, 2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'beta 1.0'!$I$2:$I$24</c:f>
+              <c:f>'beta (0.85, 1.0) agents'!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2229.6410000000001</c:v>
+                  <c:v>1449.011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1831.9259999999999</c:v>
+                  <c:v>1355.4390000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1445.799</c:v>
+                  <c:v>1069.6400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1526.6189999999999</c:v>
+                  <c:v>1057.797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1869.171</c:v>
+                  <c:v>1089.6030000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1471.2919999999999</c:v>
+                  <c:v>1089.6030000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1032.6510000000001</c:v>
+                  <c:v>1009.662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1118.145</c:v>
+                  <c:v>870.86700000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1961.3330000000001</c:v>
+                  <c:v>1161.722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1494.8679999999999</c:v>
+                  <c:v>1057.797</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1117.9359999999999</c:v>
+                  <c:v>860.87400000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1449.672</c:v>
+                  <c:v>748.36099999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2239.8310000000001</c:v>
+                  <c:v>1833.42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1831.9259999999999</c:v>
+                  <c:v>1623.105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1484.5609999999999</c:v>
+                  <c:v>1179.7650000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2140.6370000000002</c:v>
+                  <c:v>1498.644</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2002.0340000000001</c:v>
+                  <c:v>1324.288</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1489.364</c:v>
+                  <c:v>1187.127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1015.889</c:v>
+                  <c:v>803.22699999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1405.1110000000001</c:v>
+                  <c:v>744.45799999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2759.1119999999992</c:v>
+                  <c:v>2109.4409999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2115.152</c:v>
+                  <c:v>1500.08</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1408.807</c:v>
+                  <c:v>748.91599999999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +515,118 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7165-4CE4-9967-BAFC0CF850D2}"/>
+              <c16:uniqueId val="{00000001-64D4-4C8F-B25C-F78217033B24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'beta 1.0 wo agents'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'beta 1.0 wo agents'!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1739.568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1893.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1525.4639999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1121.3720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1363.3030000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1828.5029999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1510.049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1130.703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1444.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1777.972</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1434.693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>793.07199999999989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013.4380000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1724.0260000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1249.527</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1677.6369999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1539.192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1462.9770000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1122.1469999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>788.74900000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2373.8719999999989</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1682.6320000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>793.66699999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64D4-4C8F-B25C-F78217033B24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -631,11 +639,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2064511567"/>
-        <c:axId val="1742229647"/>
+        <c:axId val="262269327"/>
+        <c:axId val="536238079"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2064511567"/>
+        <c:axId val="262269327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1742229647"/>
+        <c:crossAx val="536238079"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1742229647"/>
+        <c:axId val="536238079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,1166 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064511567"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.033894956678802E-2"/>
-          <c:y val="9.9259603596283358E-2"/>
-          <c:w val="0.92098721530776395"/>
-          <c:h val="0.67608542374081404"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'beta 1.0'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Task Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'beta 1.0'!$B$2:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>(0, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(0, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(0, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(0, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(0, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(0, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(0, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(0, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(0, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(0, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(0, None, 2)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(0, None, None)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(None, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(None, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(None, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>(None, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>(None, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>(None, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>(None, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>(None, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>(None, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>(None, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>(None, None, 2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'beta 1.0'!$C$2:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1379.9280000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1190.538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>827.02699999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>793.07199999999989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>765.04499999999985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>765.04499999999985</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>764.23099999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>765.04499999999985</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1276.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>793.07199999999989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>767.46100000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>793.07199999999989</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1951.098</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1653.4659999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1189.4839999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1677.6369999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1541.93</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1129.979</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>770.62900000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>768.23099999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2373.8719999999989</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1658.5519999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>771.48700000000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE53-4E4D-BC3D-CB0F313E6073}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'beta 1.0'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DLS Task Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'beta 1.0'!$B$2:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>(0, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(0, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(0, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(0, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(0, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(0, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(0, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(0, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(0, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(0, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(0, None, 2)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(0, None, None)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(None, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(None, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(None, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>(None, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>(None, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>(None, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>(None, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>(None, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>(None, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>(None, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>(None, None, 2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'beta 1.0'!$J$2:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2091.9409999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1653.4659999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1280.039</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1324.9190000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1696.191</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1296.0719999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>764.23099999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>765.04499999999985</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1747.693</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1300.748</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>741.19600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>793.07199999999989</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2100.4110000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1653.4659999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1301.941</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1677.6369999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1815.854</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1296.8040000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>770.62900000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>768.23099999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2373.8719999999989</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1658.5519999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>771.48700000000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CE53-4E4D-BC3D-CB0F313E6073}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="129616671"/>
-        <c:axId val="1742229231"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="129616671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1742229231"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1742229231"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="129616671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'beta (0.85, 1.0)'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'beta (0.85, 1.0)'!$B$2:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>(0, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(0, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(0, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(0, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(0, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(0, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(0, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(0, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(0, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(0, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(0, None, 2)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(0, None, None)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(None, 0, 0)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(None, 0, 1)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(None, 0, 2)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>(None, 0, None)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>(None, 1, 0)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>(None, 1, 1)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>(None, 1, 2)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>(None, 1, None)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>(None, None, 0)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>(None, None, 1)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>(None, None, 2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'beta (0.85, 1.0)'!$F$2:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1729.3240000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1674.18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1070.5640000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1342.31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1030.394</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1029.0360000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>931.25000000000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1023.712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1659.078</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1366.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1042.4880000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1388.1659999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2042.8520000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1707.31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1404.3720000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2055.9029999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1787.3230000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1412.39</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>933.14699999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1284.6020000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2689.0509999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2057.6170000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1303.1559999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E51-4799-97A1-B94BCE02EA67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'beta 1.0'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'beta 1.0'!$F$2:$F$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1739.568</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1557.318</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1113.8869999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1449.672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1118.145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1118.145</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1032.6510000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1118.145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1671.66</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1449.672</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1134.001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1449.672</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2152.4380000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1831.9259999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1460.5840000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2140.6370000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1829.53</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1413.1990000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1015.889</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1405.1110000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2759.1119999999992</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2115.152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1408.807</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E51-4799-97A1-B94BCE02EA67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2064514767"/>
-        <c:axId val="120132575"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2064514767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="120132575"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="120132575"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2064514767"/>
+        <c:crossAx val="262269327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1953,86 +802,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2588,1136 +1357,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>332316</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313267</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>173567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>186267</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>93132</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D6DDAD-8265-4E29-9D36-DB0DFB1C13B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>21166</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>131234</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>29633</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1CF47E-0309-404D-9000-C32268338EE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>472016</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>27516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539749</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40216</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0C87F9-FF43-4862-9D01-E9BA0C9E6AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE19830-1893-48F4-BDF5-503412D33E5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4090,16 +1750,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>974.72600000000011</v>
+        <v>556.45299999999997</v>
       </c>
       <c r="D2">
-        <v>59.534999999999997</v>
+        <v>82.533000000000001</v>
       </c>
       <c r="E2">
-        <v>192.9</v>
+        <v>265.16399999999999</v>
       </c>
       <c r="F2">
-        <v>1167.626</v>
+        <v>821.61699999999996</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -4110,16 +1770,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>806.45400000000006</v>
+        <v>553.93700000000001</v>
       </c>
       <c r="D3">
-        <v>59.46</v>
+        <v>82.427999999999997</v>
       </c>
       <c r="E3">
-        <v>192.81</v>
+        <v>265.03800000000001</v>
       </c>
       <c r="F3">
-        <v>999.26400000000012</v>
+        <v>818.97500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -4130,16 +1790,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>474.76600000000002</v>
+        <v>552.70000000000005</v>
       </c>
       <c r="D4">
-        <v>48.725000000000001</v>
+        <v>68.215000000000003</v>
       </c>
       <c r="E4">
-        <v>128.6</v>
+        <v>180.04</v>
       </c>
       <c r="F4">
-        <v>603.36599999999999</v>
+        <v>732.74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
@@ -4150,16 +1810,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>396.53599999999989</v>
+        <v>555.149</v>
       </c>
       <c r="D5">
-        <v>82.075000000000003</v>
+        <v>114.905</v>
       </c>
       <c r="E5">
-        <v>328.3</v>
+        <v>229.81</v>
       </c>
       <c r="F5">
-        <v>724.83600000000001</v>
+        <v>784.95900000000006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -4170,16 +1830,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>382.52199999999988</v>
+        <v>549.89300000000003</v>
       </c>
       <c r="D6">
-        <v>56.88</v>
+        <v>81.992000000000004</v>
       </c>
       <c r="E6">
-        <v>182.37</v>
+        <v>263.20600000000002</v>
       </c>
       <c r="F6">
-        <v>564.89199999999994</v>
+        <v>813.09900000000005</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -4190,16 +1850,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>382.52199999999988</v>
+        <v>549.89300000000003</v>
       </c>
       <c r="D7">
-        <v>56.88</v>
+        <v>81.992000000000004</v>
       </c>
       <c r="E7">
-        <v>182.37</v>
+        <v>263.20600000000002</v>
       </c>
       <c r="F7">
-        <v>564.89199999999994</v>
+        <v>813.09900000000005</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -4210,16 +1870,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>382.11500000000001</v>
+        <v>549.32400000000007</v>
       </c>
       <c r="D8">
-        <v>50.814999999999998</v>
+        <v>72.688999999999993</v>
       </c>
       <c r="E8">
-        <v>146.12</v>
+        <v>207.58399999999989</v>
       </c>
       <c r="F8">
-        <v>528.2349999999999</v>
+        <v>756.90800000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -4230,16 +1890,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>382.52199999999988</v>
+        <v>549.89300000000003</v>
       </c>
       <c r="D9">
-        <v>56.88</v>
+        <v>81.992000000000004</v>
       </c>
       <c r="E9">
-        <v>182.37</v>
+        <v>99.222000000000023</v>
       </c>
       <c r="F9">
-        <v>564.89199999999994</v>
+        <v>649.11500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -4250,16 +1910,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>896.78</v>
+        <v>554.25400000000002</v>
       </c>
       <c r="D10">
-        <v>59.594999999999999</v>
+        <v>82.617000000000004</v>
       </c>
       <c r="E10">
-        <v>193.59</v>
+        <v>100.896</v>
       </c>
       <c r="F10">
-        <v>1090.3699999999999</v>
+        <v>655.15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
@@ -4270,16 +1930,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>396.53599999999989</v>
+        <v>555.149</v>
       </c>
       <c r="D11">
-        <v>82.075000000000003</v>
+        <v>114.905</v>
       </c>
       <c r="E11">
-        <v>328.3</v>
+        <v>229.81</v>
       </c>
       <c r="F11">
-        <v>724.83600000000001</v>
+        <v>784.95900000000006</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -4290,16 +1950,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>394.44600000000003</v>
+        <v>552.22500000000002</v>
       </c>
       <c r="D12">
-        <v>57.064999999999998</v>
+        <v>79.891000000000005</v>
       </c>
       <c r="E12">
-        <v>178.71</v>
+        <v>90.412000000000006</v>
       </c>
       <c r="F12">
-        <v>573.15599999999995</v>
+        <v>642.63700000000006</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -4310,16 +1970,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>396.53599999999989</v>
+        <v>555.149</v>
       </c>
       <c r="D13">
-        <v>82.075000000000003</v>
+        <v>114.905</v>
       </c>
       <c r="E13">
-        <v>328.3</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="F13">
-        <v>724.83600000000001</v>
+        <v>555.149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
@@ -4330,16 +1990,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1431.5509999999999</v>
+        <v>861.19299999999998</v>
       </c>
       <c r="D14">
-        <v>47.005000000000003</v>
+        <v>62.741</v>
       </c>
       <c r="E14">
-        <v>127.19</v>
+        <v>54.109999999999992</v>
       </c>
       <c r="F14">
-        <v>1558.741</v>
+        <v>915.303</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
@@ -4350,16 +2010,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1142.8389999999999</v>
+        <v>724.41799999999989</v>
       </c>
       <c r="D15">
-        <v>46.094999999999999</v>
+        <v>62.335000000000001</v>
       </c>
       <c r="E15">
-        <v>119.17</v>
+        <v>39.773999999999987</v>
       </c>
       <c r="F15">
-        <v>1262.009</v>
+        <v>764.19199999999989</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
@@ -4370,16 +2030,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>702.49800000000016</v>
+        <v>553.03300000000002</v>
       </c>
       <c r="D16">
-        <v>46.634999999999998</v>
+        <v>68.635000000000005</v>
       </c>
       <c r="E16">
-        <v>120.78</v>
+        <v>45.206000000000031</v>
       </c>
       <c r="F16">
-        <v>823.27800000000013</v>
+        <v>598.23900000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
@@ -4390,16 +2050,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1155.155</v>
+        <v>670.66800000000001</v>
       </c>
       <c r="D17">
-        <v>79.61</v>
+        <v>108.38800000000001</v>
       </c>
       <c r="E17">
-        <v>318.44000000000011</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F17">
-        <v>1473.595</v>
+        <v>670.66800000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
@@ -4410,16 +2070,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1031.998</v>
+        <v>677.93499999999995</v>
       </c>
       <c r="D18">
-        <v>47.005000000000003</v>
+        <v>68.942999999999998</v>
       </c>
       <c r="E18">
-        <v>122.63</v>
+        <v>59.121999999999993</v>
       </c>
       <c r="F18">
-        <v>1154.6279999999999</v>
+        <v>737.0569999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
@@ -4430,16 +2090,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>702.904</v>
+        <v>624.82999999999993</v>
       </c>
       <c r="D19">
-        <v>47.005000000000003</v>
+        <v>68.942999999999998</v>
       </c>
       <c r="E19">
-        <v>122.63</v>
+        <v>53.536000000000001</v>
       </c>
       <c r="F19">
-        <v>825.53399999999999</v>
+        <v>678.36599999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
@@ -4450,16 +2110,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>385.315</v>
+        <v>553.80299999999988</v>
       </c>
       <c r="D20">
-        <v>47.005000000000003</v>
+        <v>68.942999999999998</v>
       </c>
       <c r="E20">
-        <v>122.63</v>
+        <v>46.34</v>
       </c>
       <c r="F20">
-        <v>507.94500000000011</v>
+        <v>600.14299999999992</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
@@ -4470,16 +2130,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>384.11700000000002</v>
+        <v>552.12400000000002</v>
       </c>
       <c r="D21">
-        <v>79.61</v>
+        <v>114.59</v>
       </c>
       <c r="E21">
-        <v>318.44000000000011</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="F21">
-        <v>702.55700000000002</v>
+        <v>552.12400000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -4490,16 +2150,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>1828.105</v>
+        <v>1042.345</v>
       </c>
       <c r="D22">
-        <v>74.064999999999998</v>
+        <v>89.81</v>
       </c>
       <c r="E22">
-        <v>296.26</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="F22">
-        <v>2124.3649999999998</v>
+        <v>1042.345</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
@@ -4510,16 +2170,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1146.0920000000001</v>
+        <v>664.28800000000001</v>
       </c>
       <c r="D23">
-        <v>78.790000000000006</v>
+        <v>108.108</v>
       </c>
       <c r="E23">
-        <v>315.16000000000003</v>
+        <v>2.8421709430404007E-14</v>
       </c>
       <c r="F23">
-        <v>1461.252</v>
+        <v>664.28800000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
@@ -4530,20 +2190,513 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>385.74200000000002</v>
+        <v>555.56600000000003</v>
       </c>
       <c r="D24">
-        <v>79.665000000000006</v>
+        <v>114.877</v>
       </c>
       <c r="E24">
-        <v>318.66000000000003</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F24">
-        <v>704.40200000000004</v>
+        <v>555.56600000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X18:X19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1314.933</v>
+      </c>
+      <c r="D2">
+        <v>97.179000000000002</v>
+      </c>
+      <c r="E2">
+        <v>329.44799999999998</v>
+      </c>
+      <c r="F2">
+        <v>1644.3810000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1187.117</v>
+      </c>
+      <c r="D3">
+        <v>100.10899999999999</v>
+      </c>
+      <c r="E3">
+        <v>606.48799999999983</v>
+      </c>
+      <c r="F3">
+        <v>1793.605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>824.18399999999986</v>
+      </c>
+      <c r="D4">
+        <v>90.75</v>
+      </c>
+      <c r="E4">
+        <v>587.46399999999994</v>
+      </c>
+      <c r="F4">
+        <v>1411.6479999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>748.36099999999999</v>
+      </c>
+      <c r="D5">
+        <v>154.71799999999999</v>
+      </c>
+      <c r="E5">
+        <v>309.43599999999998</v>
+      </c>
+      <c r="F5">
+        <v>1057.797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>741.43300000000011</v>
+      </c>
+      <c r="D6">
+        <v>109.36799999999999</v>
+      </c>
+      <c r="E6">
+        <v>543.08199999999988</v>
+      </c>
+      <c r="F6">
+        <v>1284.5150000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>741.43300000000011</v>
+      </c>
+      <c r="D7">
+        <v>109.36799999999999</v>
+      </c>
+      <c r="E7">
+        <v>980.55399999999986</v>
+      </c>
+      <c r="F7">
+        <v>1721.9870000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>740.63799999999992</v>
+      </c>
+      <c r="D8">
+        <v>96.132000000000005</v>
+      </c>
+      <c r="E8">
+        <v>685.15200000000004</v>
+      </c>
+      <c r="F8">
+        <v>1425.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>741.43300000000011</v>
+      </c>
+      <c r="D9">
+        <v>109.36799999999999</v>
+      </c>
+      <c r="E9">
+        <v>324.34599999999989</v>
+      </c>
+      <c r="F9">
+        <v>1065.779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1214.9770000000001</v>
+      </c>
+      <c r="D10">
+        <v>105.919</v>
+      </c>
+      <c r="E10">
+        <v>154.83199999999999</v>
+      </c>
+      <c r="F10">
+        <v>1369.809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>748.36099999999999</v>
+      </c>
+      <c r="D11">
+        <v>154.71799999999999</v>
+      </c>
+      <c r="E11">
+        <v>928.30799999999999</v>
+      </c>
+      <c r="F11">
+        <v>1676.6690000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>744.33800000000008</v>
+      </c>
+      <c r="D12">
+        <v>106.267</v>
+      </c>
+      <c r="E12">
+        <v>582.67999999999984</v>
+      </c>
+      <c r="F12">
+        <v>1327.018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>748.36099999999999</v>
+      </c>
+      <c r="D13">
+        <v>154.71799999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="F13">
+        <v>748.36099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1847.2260000000001</v>
+      </c>
+      <c r="D14">
+        <v>64.453000000000003</v>
+      </c>
+      <c r="E14">
+        <v>54.89200000000001</v>
+      </c>
+      <c r="F14">
+        <v>1902.1179999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1583.5050000000001</v>
+      </c>
+      <c r="D15">
+        <v>64.453999999999994</v>
+      </c>
+      <c r="E15">
+        <v>39.59999999999998</v>
+      </c>
+      <c r="F15">
+        <v>1623.105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1084.3309999999999</v>
+      </c>
+      <c r="D16">
+        <v>91.856999999999999</v>
+      </c>
+      <c r="E16">
+        <v>95.433999999999912</v>
+      </c>
+      <c r="F16">
+        <v>1179.7650000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1583.3140000000001</v>
+      </c>
+      <c r="D17">
+        <v>109.107</v>
+      </c>
+      <c r="E17">
+        <v>-1.4210854715202001E-14</v>
+      </c>
+      <c r="F17">
+        <v>1583.3140000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1352.807</v>
+      </c>
+      <c r="D18">
+        <v>91.344999999999999</v>
+      </c>
+      <c r="E18">
+        <v>108.67399999999989</v>
+      </c>
+      <c r="F18">
+        <v>1461.481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1094.0730000000001</v>
+      </c>
+      <c r="D19">
+        <v>91.344999999999999</v>
+      </c>
+      <c r="E19">
+        <v>279.16199999999992</v>
+      </c>
+      <c r="F19">
+        <v>1373.2349999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>746.82699999999988</v>
+      </c>
+      <c r="D20">
+        <v>91.344999999999999</v>
+      </c>
+      <c r="E20">
+        <v>281.99999999999989</v>
+      </c>
+      <c r="F20">
+        <v>1028.827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>744.45799999999997</v>
+      </c>
+      <c r="D21">
+        <v>154.31100000000001</v>
+      </c>
+      <c r="E21">
+        <v>-8.5265128291212022E-14</v>
+      </c>
+      <c r="F21">
+        <v>744.45799999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2238.5880000000002</v>
+      </c>
+      <c r="D22">
+        <v>90.778999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2238.5880000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1588.683</v>
+      </c>
+      <c r="D23">
+        <v>109.271</v>
+      </c>
+      <c r="E23">
+        <v>-4.2632564145606011E-14</v>
+      </c>
+      <c r="F23">
+        <v>1588.683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>748.91599999999983</v>
+      </c>
+      <c r="D24">
+        <v>154.678</v>
+      </c>
+      <c r="E24">
+        <v>1.4210854715202001E-13</v>
+      </c>
+      <c r="F24">
+        <v>748.91599999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4580,16 +2733,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1169.671</v>
+        <v>965.94900000000007</v>
       </c>
       <c r="D2">
-        <v>71.034000000000006</v>
+        <v>74.05</v>
       </c>
       <c r="E2">
-        <v>229.03200000000001</v>
+        <v>255.13199999999989</v>
       </c>
       <c r="F2">
-        <v>1398.703</v>
+        <v>1221.0809999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -4600,16 +2753,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>967.74499999999989</v>
+        <v>875.846</v>
       </c>
       <c r="D3">
-        <v>70.944000000000003</v>
+        <v>75.043000000000006</v>
       </c>
       <c r="E3">
-        <v>228.92400000000001</v>
+        <v>456.23399999999998</v>
       </c>
       <c r="F3">
-        <v>1196.6690000000001</v>
+        <v>1332.08</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -4620,16 +2773,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>569.71900000000005</v>
+        <v>612.30700000000002</v>
       </c>
       <c r="D4">
-        <v>58.47</v>
+        <v>68.215000000000003</v>
       </c>
       <c r="E4">
-        <v>154.32</v>
+        <v>455.51799999999997</v>
       </c>
       <c r="F4">
-        <v>724.03899999999999</v>
+        <v>1067.825</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
@@ -4640,16 +2793,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>475.84199999999998</v>
+        <v>555.149</v>
       </c>
       <c r="D5">
-        <v>98.49</v>
+        <v>114.905</v>
       </c>
       <c r="E5">
-        <v>393.96</v>
+        <v>229.81</v>
       </c>
       <c r="F5">
-        <v>869.80200000000013</v>
+        <v>784.95900000000006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -4660,16 +2813,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>459.02600000000012</v>
+        <v>549.89300000000003</v>
       </c>
       <c r="D6">
-        <v>67.867999999999995</v>
+        <v>81.992000000000004</v>
       </c>
       <c r="E6">
-        <v>216.51599999999999</v>
+        <v>410.23800000000011</v>
       </c>
       <c r="F6">
-        <v>675.54200000000003</v>
+        <v>960.13100000000009</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -4680,16 +2833,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>459.02600000000012</v>
+        <v>549.89300000000003</v>
       </c>
       <c r="D7">
-        <v>67.867999999999995</v>
+        <v>81.992000000000004</v>
       </c>
       <c r="E7">
-        <v>216.51599999999999</v>
+        <v>738.20600000000013</v>
       </c>
       <c r="F7">
-        <v>675.54200000000003</v>
+        <v>1288.0989999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -4700,16 +2853,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>458.53699999999998</v>
+        <v>549.32400000000007</v>
       </c>
       <c r="D8">
-        <v>60.183999999999997</v>
+        <v>72.688999999999993</v>
       </c>
       <c r="E8">
-        <v>170.58</v>
+        <v>529.14799999999991</v>
       </c>
       <c r="F8">
-        <v>629.11699999999996</v>
+        <v>1078.472</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -4720,16 +2873,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>459.02600000000012</v>
+        <v>549.89300000000003</v>
       </c>
       <c r="D9">
-        <v>67.867999999999995</v>
+        <v>81.992000000000004</v>
       </c>
       <c r="E9">
-        <v>216.51599999999999</v>
+        <v>246.2540000000001</v>
       </c>
       <c r="F9">
-        <v>675.54200000000003</v>
+        <v>796.14700000000016</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -4740,16 +2893,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1076.1369999999999</v>
+        <v>893.24099999999999</v>
       </c>
       <c r="D10">
-        <v>71.105999999999995</v>
+        <v>79.555000000000007</v>
       </c>
       <c r="E10">
-        <v>229.86</v>
+        <v>117.81</v>
       </c>
       <c r="F10">
-        <v>1305.9970000000001</v>
+        <v>1011.051</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
@@ -4760,16 +2913,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>475.84199999999998</v>
+        <v>555.149</v>
       </c>
       <c r="D11">
-        <v>98.49</v>
+        <v>114.905</v>
       </c>
       <c r="E11">
-        <v>393.96</v>
+        <v>689.43000000000006</v>
       </c>
       <c r="F11">
-        <v>869.80200000000013</v>
+        <v>1244.579</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -4780,16 +2933,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>473.33499999999998</v>
+        <v>552.22500000000002</v>
       </c>
       <c r="D12">
-        <v>68.477999999999994</v>
+        <v>79.891000000000005</v>
       </c>
       <c r="E12">
-        <v>214.452</v>
+        <v>452.06000000000012</v>
       </c>
       <c r="F12">
-        <v>687.78699999999992</v>
+        <v>1004.285</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -4800,16 +2953,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>475.84199999999998</v>
+        <v>555.149</v>
       </c>
       <c r="D13">
-        <v>98.49</v>
+        <v>114.905</v>
       </c>
       <c r="E13">
-        <v>393.96</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="F13">
-        <v>869.80200000000013</v>
+        <v>555.149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
@@ -4820,16 +2973,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1640.144</v>
+        <v>1365.768</v>
       </c>
       <c r="D14">
-        <v>56.405999999999999</v>
+        <v>48.65</v>
       </c>
       <c r="E14">
-        <v>158.79599999999999</v>
+        <v>43.638000000000012</v>
       </c>
       <c r="F14">
-        <v>1798.94</v>
+        <v>1409.4059999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
@@ -4840,16 +2993,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1371.4059999999999</v>
+        <v>1174.2809999999999</v>
       </c>
       <c r="D15">
-        <v>55.314</v>
+        <v>48.643000000000001</v>
       </c>
       <c r="E15">
-        <v>143.00399999999999</v>
+        <v>32.535999999999973</v>
       </c>
       <c r="F15">
-        <v>1514.41</v>
+        <v>1206.817</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
@@ -4860,16 +3013,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>842.99900000000002</v>
+        <v>802.38699999999983</v>
       </c>
       <c r="D16">
-        <v>55.962000000000003</v>
+        <v>68.635000000000005</v>
       </c>
       <c r="E16">
-        <v>144.93600000000001</v>
+        <v>72.282000000000082</v>
       </c>
       <c r="F16">
-        <v>987.93500000000006</v>
+        <v>874.66899999999987</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
@@ -4880,16 +3033,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1386.1859999999999</v>
+        <v>1174.346</v>
       </c>
       <c r="D17">
-        <v>95.531999999999996</v>
+        <v>81.025000000000006</v>
       </c>
       <c r="E17">
-        <v>382.12799999999999</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1768.3140000000001</v>
+        <v>1174.346</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
@@ -4900,16 +3053,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1238.396</v>
+        <v>993.20999999999981</v>
       </c>
       <c r="D18">
-        <v>56.405999999999999</v>
+        <v>68.942999999999998</v>
       </c>
       <c r="E18">
-        <v>147.15599999999989</v>
+        <v>84.224000000000004</v>
       </c>
       <c r="F18">
-        <v>1385.5519999999999</v>
+        <v>1077.434</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
@@ -4920,16 +3073,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>843.48400000000004</v>
+        <v>805.34799999999996</v>
       </c>
       <c r="D19">
-        <v>56.405999999999999</v>
+        <v>68.942999999999998</v>
       </c>
       <c r="E19">
-        <v>147.15599999999989</v>
+        <v>218.7359999999999</v>
       </c>
       <c r="F19">
-        <v>990.64</v>
+        <v>1024.0840000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
@@ -4940,16 +3093,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>462.37700000000012</v>
+        <v>553.80299999999988</v>
       </c>
       <c r="D20">
-        <v>56.405999999999999</v>
+        <v>68.942999999999998</v>
       </c>
       <c r="E20">
-        <v>147.15599999999989</v>
+        <v>231.7</v>
       </c>
       <c r="F20">
-        <v>609.53300000000002</v>
+        <v>785.50299999999993</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
@@ -4960,16 +3113,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>460.93799999999999</v>
+        <v>552.12400000000002</v>
       </c>
       <c r="D21">
-        <v>95.531999999999996</v>
+        <v>114.59</v>
       </c>
       <c r="E21">
-        <v>382.12799999999999</v>
+        <v>4.2632564145606011E-14</v>
       </c>
       <c r="F21">
-        <v>843.06600000000003</v>
+        <v>552.12400000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -4980,16 +3133,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2119.5839999999998</v>
+        <v>1661.7090000000001</v>
       </c>
       <c r="D22">
-        <v>85.878</v>
+        <v>67.417000000000002</v>
       </c>
       <c r="E22">
-        <v>343.512</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="F22">
-        <v>2463.096</v>
+        <v>1661.7090000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
@@ -5000,16 +3153,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1375.31</v>
+        <v>1177.8409999999999</v>
       </c>
       <c r="D23">
-        <v>94.548000000000002</v>
+        <v>81.13</v>
       </c>
       <c r="E23">
-        <v>378.19200000000001</v>
+        <v>4.2632564145606011E-14</v>
       </c>
       <c r="F23">
-        <v>1753.502</v>
+        <v>1177.8409999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
@@ -5020,16 +3173,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>462.89100000000002</v>
+        <v>555.56600000000003</v>
       </c>
       <c r="D24">
-        <v>95.597999999999999</v>
+        <v>114.877</v>
       </c>
       <c r="E24">
-        <v>382.392</v>
+        <v>-7.1054273576010019E-14</v>
       </c>
       <c r="F24">
-        <v>845.2829999999999</v>
+        <v>555.56599999999992</v>
       </c>
     </row>
   </sheetData>
@@ -5070,16 +3223,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1364.616</v>
+        <v>635.94799999999998</v>
       </c>
       <c r="D2">
-        <v>82.533000000000001</v>
+        <v>94.031999999999996</v>
       </c>
       <c r="E2">
-        <v>265.16399999999999</v>
+        <v>301.29599999999999</v>
       </c>
       <c r="F2">
-        <v>1629.78</v>
+        <v>937.24399999999991</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -5090,16 +3243,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1129.0340000000001</v>
+        <v>633.072</v>
       </c>
       <c r="D3">
-        <v>82.427999999999997</v>
+        <v>93.912000000000006</v>
       </c>
       <c r="E3">
-        <v>265.03800000000001</v>
+        <v>301.15199999999999</v>
       </c>
       <c r="F3">
-        <v>1394.0719999999999</v>
+        <v>934.22400000000005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -5110,16 +3263,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>664.67399999999998</v>
+        <v>631.65700000000004</v>
       </c>
       <c r="D4">
-        <v>68.215000000000003</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="E4">
-        <v>180.04</v>
+        <v>205.76</v>
       </c>
       <c r="F4">
-        <v>844.71399999999994</v>
+        <v>837.41700000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
@@ -5130,16 +3283,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>555.149</v>
+        <v>634.45799999999997</v>
       </c>
       <c r="D5">
-        <v>114.905</v>
+        <v>131.32</v>
       </c>
       <c r="E5">
-        <v>459.62</v>
+        <v>262.64</v>
       </c>
       <c r="F5">
-        <v>1014.769</v>
+        <v>897.09799999999996</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -5150,16 +3303,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>535.53000000000009</v>
+        <v>628.452</v>
       </c>
       <c r="D6">
-        <v>78.855999999999995</v>
+        <v>93.427999999999997</v>
       </c>
       <c r="E6">
-        <v>250.66200000000001</v>
+        <v>299.14400000000001</v>
       </c>
       <c r="F6">
-        <v>786.19200000000001</v>
+        <v>927.596</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -5170,16 +3323,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>535.53000000000009</v>
+        <v>628.452</v>
       </c>
       <c r="D7">
-        <v>78.855999999999995</v>
+        <v>93.427999999999997</v>
       </c>
       <c r="E7">
-        <v>250.66200000000001</v>
+        <v>299.14400000000001</v>
       </c>
       <c r="F7">
-        <v>786.19200000000001</v>
+        <v>927.596</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -5190,16 +3343,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>534.96100000000001</v>
+        <v>627.79899999999998</v>
       </c>
       <c r="D8">
-        <v>69.552999999999997</v>
+        <v>82.506</v>
       </c>
       <c r="E8">
-        <v>195.04</v>
+        <v>233.83600000000001</v>
       </c>
       <c r="F8">
-        <v>730.00099999999998</v>
+        <v>861.63499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -5210,16 +3363,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>535.53000000000009</v>
+        <v>628.452</v>
       </c>
       <c r="D9">
-        <v>78.855999999999995</v>
+        <v>93.427999999999997</v>
       </c>
       <c r="E9">
-        <v>250.66200000000001</v>
+        <v>112.288</v>
       </c>
       <c r="F9">
-        <v>786.19200000000001</v>
+        <v>740.74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -5230,16 +3383,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1255.4929999999999</v>
+        <v>705.09000000000015</v>
       </c>
       <c r="D10">
-        <v>82.617000000000004</v>
+        <v>90.92</v>
       </c>
       <c r="E10">
-        <v>266.13</v>
+        <v>108.624</v>
       </c>
       <c r="F10">
-        <v>1521.623</v>
+        <v>813.71400000000017</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
@@ -5250,16 +3403,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>555.149</v>
+        <v>634.45799999999997</v>
       </c>
       <c r="D11">
-        <v>114.905</v>
+        <v>131.32</v>
       </c>
       <c r="E11">
-        <v>459.62</v>
+        <v>262.64</v>
       </c>
       <c r="F11">
-        <v>1014.769</v>
+        <v>897.09799999999996</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -5270,16 +3423,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>552.22500000000002</v>
+        <v>631.11500000000001</v>
       </c>
       <c r="D12">
-        <v>79.891000000000005</v>
+        <v>91.304000000000002</v>
       </c>
       <c r="E12">
-        <v>250.19399999999999</v>
+        <v>103.328</v>
       </c>
       <c r="F12">
-        <v>802.4190000000001</v>
+        <v>734.44299999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -5290,16 +3443,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>555.149</v>
+        <v>634.45799999999997</v>
       </c>
       <c r="D13">
-        <v>114.905</v>
+        <v>131.32</v>
       </c>
       <c r="E13">
-        <v>459.62</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1014.769</v>
+        <v>634.45799999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
@@ -5310,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1792.3689999999999</v>
+        <v>1196.0139999999999</v>
       </c>
       <c r="D14">
-        <v>62.741</v>
+        <v>63.84</v>
       </c>
       <c r="E14">
-        <v>179.39599999999999</v>
+        <v>53.424000000000007</v>
       </c>
       <c r="F14">
-        <v>1971.7650000000001</v>
+        <v>1249.4380000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
@@ -5330,16 +3483,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1507.0930000000001</v>
+        <v>1041.259</v>
       </c>
       <c r="D15">
-        <v>61.11</v>
+        <v>63.688000000000002</v>
       </c>
       <c r="E15">
-        <v>159.54400000000001</v>
+        <v>37.695999999999998</v>
       </c>
       <c r="F15">
-        <v>1666.6369999999999</v>
+        <v>1078.9549999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
@@ -5350,16 +3503,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>983.49899999999991</v>
+        <v>781.80900000000008</v>
       </c>
       <c r="D16">
-        <v>65.289000000000001</v>
+        <v>78.44</v>
       </c>
       <c r="E16">
-        <v>169.09200000000001</v>
+        <v>66.99199999999999</v>
       </c>
       <c r="F16">
-        <v>1152.5909999999999</v>
+        <v>848.80100000000004</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
@@ -5370,16 +3523,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1574.1079999999999</v>
+        <v>994.58799999999997</v>
       </c>
       <c r="D17">
-        <v>108.38800000000001</v>
+        <v>111.664</v>
       </c>
       <c r="E17">
-        <v>433.55200000000002</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2007.66</v>
+        <v>994.58799999999997</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
@@ -5390,16 +3543,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1286.9839999999999</v>
+        <v>848.74099999999999</v>
       </c>
       <c r="D18">
-        <v>65.807000000000002</v>
+        <v>78.792000000000002</v>
       </c>
       <c r="E18">
-        <v>184.67400000000001</v>
+        <v>76.01600000000002</v>
       </c>
       <c r="F18">
-        <v>1471.6579999999999</v>
+        <v>924.75700000000006</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
@@ -5410,16 +3563,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>984.06399999999985</v>
+        <v>784.30000000000007</v>
       </c>
       <c r="D19">
-        <v>65.807000000000002</v>
+        <v>78.792000000000002</v>
       </c>
       <c r="E19">
-        <v>171.68199999999999</v>
+        <v>68.480000000000018</v>
       </c>
       <c r="F19">
-        <v>1155.7460000000001</v>
+        <v>852.78000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
@@ -5430,16 +3583,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>539.43999999999994</v>
+        <v>632.91700000000003</v>
       </c>
       <c r="D20">
-        <v>65.807000000000002</v>
+        <v>78.792000000000002</v>
       </c>
       <c r="E20">
-        <v>171.68199999999999</v>
+        <v>52.960000000000022</v>
       </c>
       <c r="F20">
-        <v>711.12199999999996</v>
+        <v>685.87700000000007</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
@@ -5450,16 +3603,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>537.76099999999997</v>
+        <v>631</v>
       </c>
       <c r="D21">
-        <v>111.45399999999999</v>
+        <v>130.96</v>
       </c>
       <c r="E21">
-        <v>445.81599999999992</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>983.57699999999988</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -5470,16 +3623,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2135.393</v>
+        <v>1404.623</v>
       </c>
       <c r="D22">
-        <v>86.632000000000005</v>
+        <v>91.32</v>
       </c>
       <c r="E22">
-        <v>346.52800000000002</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F22">
-        <v>2481.9209999999998</v>
+        <v>1404.623</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
@@ -5490,16 +3643,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1511.876</v>
+        <v>991.50299999999993</v>
       </c>
       <c r="D23">
-        <v>103.691</v>
+        <v>111.57599999999999</v>
       </c>
       <c r="E23">
-        <v>414.76400000000001</v>
+        <v>4.2632564145606011E-14</v>
       </c>
       <c r="F23">
-        <v>1926.64</v>
+        <v>991.50299999999993</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
@@ -5510,16 +3663,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>540.04</v>
+        <v>634.93200000000002</v>
       </c>
       <c r="D24">
-        <v>111.53100000000001</v>
+        <v>131.28800000000001</v>
       </c>
       <c r="E24">
-        <v>446.12400000000002</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>986.16399999999999</v>
+        <v>634.93200000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5560,16 +3713,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1470.393</v>
+        <v>1103.944</v>
       </c>
       <c r="D2">
-        <v>94.031999999999996</v>
+        <v>84.36</v>
       </c>
       <c r="E2">
-        <v>308.60799999999989</v>
+        <v>289.96800000000002</v>
       </c>
       <c r="F2">
-        <v>1779.001</v>
+        <v>1393.912</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -5580,16 +3733,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1290.326</v>
+        <v>1000.966</v>
       </c>
       <c r="D3">
-        <v>93.912000000000006</v>
+        <v>85.451999999999998</v>
       </c>
       <c r="E3">
-        <v>301.15199999999999</v>
+        <v>518.29600000000005</v>
       </c>
       <c r="F3">
-        <v>1591.4780000000001</v>
+        <v>1519.2619999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -5600,16 +3753,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>759.62700000000007</v>
+        <v>699.779</v>
       </c>
       <c r="D4">
         <v>77.959999999999994</v>
       </c>
       <c r="E4">
-        <v>205.76</v>
+        <v>520.59199999999998</v>
       </c>
       <c r="F4">
-        <v>965.38700000000006</v>
+        <v>1220.3710000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
@@ -5626,10 +3779,10 @@
         <v>131.32</v>
       </c>
       <c r="E5">
-        <v>525.28</v>
+        <v>262.64</v>
       </c>
       <c r="F5">
-        <v>1159.7380000000001</v>
+        <v>897.09799999999996</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -5640,16 +3793,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>612.03700000000003</v>
+        <v>628.452</v>
       </c>
       <c r="D6">
-        <v>89.843999999999994</v>
+        <v>93.427999999999997</v>
       </c>
       <c r="E6">
-        <v>284.80799999999988</v>
+        <v>466.07199999999989</v>
       </c>
       <c r="F6">
-        <v>896.84500000000003</v>
+        <v>1094.5239999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -5660,16 +3813,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>612.03700000000003</v>
+        <v>628.452</v>
       </c>
       <c r="D7">
-        <v>89.843999999999994</v>
+        <v>93.427999999999997</v>
       </c>
       <c r="E7">
-        <v>284.80799999999988</v>
+        <v>839.78399999999988</v>
       </c>
       <c r="F7">
-        <v>896.84500000000003</v>
+        <v>1468.2360000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -5680,16 +3833,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>611.38400000000001</v>
+        <v>627.79899999999998</v>
       </c>
       <c r="D8">
-        <v>78.921999999999997</v>
+        <v>82.506</v>
       </c>
       <c r="E8">
-        <v>219.5</v>
+        <v>594.53200000000015</v>
       </c>
       <c r="F8">
-        <v>830.88400000000001</v>
+        <v>1222.3309999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -5700,16 +3853,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>612.03700000000003</v>
+        <v>628.452</v>
       </c>
       <c r="D9">
-        <v>89.843999999999994</v>
+        <v>93.427999999999997</v>
       </c>
       <c r="E9">
-        <v>284.80799999999988</v>
+        <v>279.21600000000001</v>
       </c>
       <c r="F9">
-        <v>896.84500000000003</v>
+        <v>907.66799999999989</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -5720,16 +3873,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1345.68</v>
+        <v>1020.849</v>
       </c>
       <c r="D10">
         <v>90.92</v>
       </c>
       <c r="E10">
-        <v>290.464</v>
+        <v>134.63999999999999</v>
       </c>
       <c r="F10">
-        <v>1636.144</v>
+        <v>1155.489</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
@@ -5746,10 +3899,10 @@
         <v>131.32</v>
       </c>
       <c r="E11">
-        <v>525.28</v>
+        <v>787.92</v>
       </c>
       <c r="F11">
-        <v>1159.7380000000001</v>
+        <v>1422.3779999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -5766,10 +3919,10 @@
         <v>91.304000000000002</v>
       </c>
       <c r="E12">
-        <v>285.93599999999998</v>
+        <v>516.6400000000001</v>
       </c>
       <c r="F12">
-        <v>917.05100000000004</v>
+        <v>1147.7550000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -5786,10 +3939,10 @@
         <v>131.32</v>
       </c>
       <c r="E13">
-        <v>525.28</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1159.7380000000001</v>
+        <v>634.45799999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
@@ -5800,16 +3953,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1783.665</v>
+        <v>1560.8779999999999</v>
       </c>
       <c r="D14">
-        <v>59.704000000000001</v>
+        <v>55.6</v>
       </c>
       <c r="E14">
-        <v>164.56</v>
+        <v>49.872000000000021</v>
       </c>
       <c r="F14">
-        <v>1948.2249999999999</v>
+        <v>1610.75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
@@ -5820,16 +3973,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1539.1959999999999</v>
+        <v>1342.0329999999999</v>
       </c>
       <c r="D15">
-        <v>61.744</v>
+        <v>55.591999999999999</v>
       </c>
       <c r="E15">
-        <v>157.96799999999999</v>
+        <v>37.18399999999999</v>
       </c>
       <c r="F15">
-        <v>1697.164</v>
+        <v>1379.2170000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
@@ -5840,16 +3993,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1062.9159999999999</v>
+        <v>917.01199999999994</v>
       </c>
       <c r="D16">
-        <v>74.616</v>
+        <v>78.44</v>
       </c>
       <c r="E16">
-        <v>201.26400000000001</v>
+        <v>82.60799999999999</v>
       </c>
       <c r="F16">
-        <v>1264.18</v>
+        <v>999.61999999999989</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
@@ -5860,16 +4013,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1514.52</v>
+        <v>1342.1079999999999</v>
       </c>
       <c r="D17">
-        <v>104.416</v>
+        <v>92.6</v>
       </c>
       <c r="E17">
-        <v>417.66399999999999</v>
+        <v>-2.8421709430404007E-14</v>
       </c>
       <c r="F17">
-        <v>1932.184</v>
+        <v>1342.1079999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
@@ -5880,16 +4033,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1367.2149999999999</v>
+        <v>1135.097</v>
       </c>
       <c r="D18">
-        <v>75.207999999999998</v>
+        <v>78.792000000000002</v>
       </c>
       <c r="E18">
-        <v>219.28</v>
+        <v>96.256000000000029</v>
       </c>
       <c r="F18">
-        <v>1586.4949999999999</v>
+        <v>1231.3530000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
@@ -5900,16 +4053,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1124.644</v>
+        <v>920.39699999999993</v>
       </c>
       <c r="D19">
-        <v>75.207999999999998</v>
+        <v>78.792000000000002</v>
       </c>
       <c r="E19">
-        <v>196.208</v>
+        <v>249.98400000000001</v>
       </c>
       <c r="F19">
-        <v>1320.8520000000001</v>
+        <v>1170.3810000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
@@ -5920,16 +4073,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>616.50199999999995</v>
+        <v>632.91700000000003</v>
       </c>
       <c r="D20">
-        <v>75.207999999999998</v>
+        <v>78.792000000000002</v>
       </c>
       <c r="E20">
-        <v>196.208</v>
+        <v>264.80000000000013</v>
       </c>
       <c r="F20">
-        <v>812.70999999999992</v>
+        <v>897.7170000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
@@ -5940,16 +4093,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>614.58500000000004</v>
+        <v>631</v>
       </c>
       <c r="D21">
-        <v>127.376</v>
+        <v>130.96</v>
       </c>
       <c r="E21">
-        <v>509.50400000000002</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1124.0889999999999</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -5960,16 +4113,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2214.7719999999999</v>
+        <v>1899.097</v>
       </c>
       <c r="D22">
-        <v>89.823999999999998</v>
+        <v>77.048000000000002</v>
       </c>
       <c r="E22">
-        <v>359.29599999999999</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2574.0680000000002</v>
+        <v>1899.097</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
@@ -5980,16 +4133,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1611.7660000000001</v>
+        <v>1346.1030000000001</v>
       </c>
       <c r="D23">
-        <v>110.648</v>
+        <v>92.72</v>
       </c>
       <c r="E23">
-        <v>442.59199999999998</v>
+        <v>1.2789769243681801E-13</v>
       </c>
       <c r="F23">
-        <v>2054.3580000000002</v>
+        <v>1346.1030000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
@@ -6000,16 +4153,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>617.18900000000008</v>
+        <v>634.93200000000002</v>
       </c>
       <c r="D24">
-        <v>127.464</v>
+        <v>131.28800000000001</v>
       </c>
       <c r="E24">
-        <v>509.85600000000011</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1127.0450000000001</v>
+        <v>634.93200000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6050,16 +4203,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1405.47</v>
+        <v>942.65800000000002</v>
       </c>
       <c r="D2">
-        <v>99.322999999999993</v>
+        <v>100.75700000000001</v>
       </c>
       <c r="E2">
-        <v>335.65800000000002</v>
+        <v>335.08199999999999</v>
       </c>
       <c r="F2">
-        <v>1741.1279999999999</v>
+        <v>1277.74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -6070,16 +4223,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1261.04</v>
+        <v>945.19800000000009</v>
       </c>
       <c r="D3">
         <v>100.37</v>
       </c>
       <c r="E3">
-        <v>333.17399999999998</v>
+        <v>333.03</v>
       </c>
       <c r="F3">
-        <v>1594.2139999999999</v>
+        <v>1278.2280000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -6090,7 +4243,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>854.58199999999988</v>
+        <v>710.61599999999999</v>
       </c>
       <c r="D4">
         <v>87.704999999999998</v>
@@ -6099,7 +4252,7 @@
         <v>231.48</v>
       </c>
       <c r="F4">
-        <v>1086.0619999999999</v>
+        <v>942.096</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
@@ -6116,10 +4269,10 @@
         <v>147.73500000000001</v>
       </c>
       <c r="E5">
-        <v>590.94000000000005</v>
+        <v>295.47000000000003</v>
       </c>
       <c r="F5">
-        <v>1304.7059999999999</v>
+        <v>1009.236</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -6130,16 +4283,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>688.54100000000005</v>
+        <v>707.00800000000004</v>
       </c>
       <c r="D6">
-        <v>100.83199999999999</v>
+        <v>104.864</v>
       </c>
       <c r="E6">
-        <v>318.95400000000001</v>
+        <v>335.08199999999999</v>
       </c>
       <c r="F6">
-        <v>1007.495</v>
+        <v>1042.0899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -6150,16 +4303,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>688.54100000000005</v>
+        <v>707.00800000000004</v>
       </c>
       <c r="D7">
-        <v>100.83199999999999</v>
+        <v>104.864</v>
       </c>
       <c r="E7">
-        <v>318.95400000000001</v>
+        <v>335.08199999999999</v>
       </c>
       <c r="F7">
-        <v>1007.495</v>
+        <v>1042.0899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -6170,16 +4323,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>687.80799999999999</v>
+        <v>706.27499999999986</v>
       </c>
       <c r="D8">
-        <v>88.290999999999997</v>
+        <v>92.322999999999993</v>
       </c>
       <c r="E8">
-        <v>243.96</v>
+        <v>260.08799999999991</v>
       </c>
       <c r="F8">
-        <v>931.76800000000003</v>
+        <v>966.36299999999983</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -6190,16 +4343,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>688.54100000000005</v>
+        <v>707.00800000000004</v>
       </c>
       <c r="D9">
-        <v>100.83199999999999</v>
+        <v>104.864</v>
       </c>
       <c r="E9">
-        <v>318.95400000000001</v>
+        <v>125.354</v>
       </c>
       <c r="F9">
-        <v>1007.495</v>
+        <v>832.36200000000008</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -6210,16 +4363,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1285.67</v>
+        <v>885.09500000000003</v>
       </c>
       <c r="D10">
         <v>102.285</v>
       </c>
       <c r="E10">
-        <v>344.988</v>
+        <v>131.38200000000001</v>
       </c>
       <c r="F10">
-        <v>1630.6579999999999</v>
+        <v>1016.477</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
@@ -6236,10 +4389,10 @@
         <v>147.73500000000001</v>
       </c>
       <c r="E11">
-        <v>590.94000000000005</v>
+        <v>295.47000000000003</v>
       </c>
       <c r="F11">
-        <v>1304.7059999999999</v>
+        <v>1009.236</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -6256,10 +4409,10 @@
         <v>102.717</v>
       </c>
       <c r="E12">
-        <v>321.678</v>
+        <v>116.244</v>
       </c>
       <c r="F12">
-        <v>1031.684</v>
+        <v>826.24999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -6276,10 +4429,10 @@
         <v>147.73500000000001</v>
       </c>
       <c r="E13">
-        <v>590.94000000000005</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1304.7059999999999</v>
+        <v>713.76599999999996</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
@@ -6290,16 +4443,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1904.3040000000001</v>
+        <v>1567.2529999999999</v>
       </c>
       <c r="D14">
         <v>66.933000000000007</v>
       </c>
       <c r="E14">
-        <v>191.50200000000001</v>
+        <v>57.636000000000017</v>
       </c>
       <c r="F14">
-        <v>2095.806</v>
+        <v>1624.8889999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
@@ -6310,16 +4463,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1607.5519999999999</v>
+        <v>1434.2809999999999</v>
       </c>
       <c r="D15">
-        <v>65.096999999999994</v>
+        <v>66.671999999999997</v>
       </c>
       <c r="E15">
-        <v>168.51599999999999</v>
+        <v>50.093999999999987</v>
       </c>
       <c r="F15">
-        <v>1776.068</v>
+        <v>1484.375</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
@@ -6330,16 +4483,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1070.537</v>
+        <v>955.00399999999991</v>
       </c>
       <c r="D16">
-        <v>83.942999999999998</v>
+        <v>88.245000000000005</v>
       </c>
       <c r="E16">
-        <v>243.99</v>
+        <v>83.628000000000029</v>
       </c>
       <c r="F16">
-        <v>1314.527</v>
+        <v>1038.6320000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
@@ -6350,16 +4503,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1509.874</v>
+        <v>1347.6110000000001</v>
       </c>
       <c r="D17">
-        <v>104.175</v>
+        <v>113.175</v>
       </c>
       <c r="E17">
-        <v>416.7</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="F17">
-        <v>1926.5740000000001</v>
+        <v>1347.6110000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
@@ -6370,16 +4523,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1437.4059999999999</v>
+        <v>1156.663</v>
       </c>
       <c r="D18">
-        <v>84.608999999999995</v>
+        <v>88.641000000000005</v>
       </c>
       <c r="E18">
-        <v>254.898</v>
+        <v>100.926</v>
       </c>
       <c r="F18">
-        <v>1692.3040000000001</v>
+        <v>1257.5889999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
@@ -6390,16 +4543,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1134.731</v>
+        <v>954.83500000000004</v>
       </c>
       <c r="D19">
-        <v>84.608999999999995</v>
+        <v>88.641000000000005</v>
       </c>
       <c r="E19">
-        <v>238.464</v>
+        <v>85.517999999999986</v>
       </c>
       <c r="F19">
-        <v>1373.1949999999999</v>
+        <v>1040.3530000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
@@ -6410,16 +4563,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>693.56599999999992</v>
+        <v>712.0329999999999</v>
       </c>
       <c r="D20">
-        <v>84.608999999999995</v>
+        <v>88.641000000000005</v>
       </c>
       <c r="E20">
-        <v>220.73400000000001</v>
+        <v>59.579999999999977</v>
       </c>
       <c r="F20">
-        <v>914.29999999999984</v>
+        <v>771.61299999999983</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
@@ -6430,16 +4583,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>691.4079999999999</v>
+        <v>709.87499999999989</v>
       </c>
       <c r="D21">
-        <v>143.298</v>
+        <v>147.33000000000001</v>
       </c>
       <c r="E21">
-        <v>573.19200000000001</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1264.5999999999999</v>
+        <v>709.87499999999989</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -6450,16 +4603,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2273.9899999999998</v>
+        <v>1894.9469999999999</v>
       </c>
       <c r="D22">
-        <v>92.241</v>
+        <v>93.950999999999993</v>
       </c>
       <c r="E22">
-        <v>368.964</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F22">
-        <v>2642.9540000000002</v>
+        <v>1894.9469999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
@@ -6470,16 +4623,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1610.4459999999999</v>
+        <v>1341.8879999999999</v>
       </c>
       <c r="D23">
-        <v>110.952</v>
+        <v>113.01300000000001</v>
       </c>
       <c r="E23">
-        <v>443.80799999999999</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F23">
-        <v>2054.2539999999999</v>
+        <v>1341.8879999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
@@ -6490,16 +4643,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>694.33899999999994</v>
+        <v>714.3</v>
       </c>
       <c r="D24">
-        <v>143.39699999999999</v>
+        <v>147.69900000000001</v>
       </c>
       <c r="E24">
-        <v>573.58799999999997</v>
+        <v>-2.8421709430404007E-14</v>
       </c>
       <c r="F24">
-        <v>1267.9269999999999</v>
+        <v>714.3</v>
       </c>
     </row>
   </sheetData>
@@ -6509,15 +4662,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="B1:C24 J1:J24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6533,14 +4684,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6548,25 +4693,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1379.9280000000001</v>
+        <v>1241.9359999999999</v>
       </c>
       <c r="D2">
-        <v>104.98</v>
+        <v>94.67</v>
       </c>
       <c r="E2">
-        <v>359.64</v>
+        <v>324.80399999999997</v>
       </c>
       <c r="F2">
-        <v>1739.568</v>
-      </c>
-      <c r="I2">
-        <v>2229.6410000000001</v>
-      </c>
-      <c r="J2">
-        <v>2091.9409999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1566.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6574,25 +4713,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1190.538</v>
+        <v>1126.0889999999999</v>
       </c>
       <c r="D3">
-        <v>106.27</v>
+        <v>95.861000000000004</v>
       </c>
       <c r="E3">
-        <v>366.78</v>
+        <v>580.35800000000006</v>
       </c>
       <c r="F3">
-        <v>1557.318</v>
-      </c>
-      <c r="I3">
-        <v>1831.9259999999999</v>
-      </c>
-      <c r="J3">
-        <v>1653.4659999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1706.4469999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6600,25 +4733,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>827.02699999999993</v>
+        <v>787.25299999999993</v>
       </c>
       <c r="D4">
-        <v>97.45</v>
+        <v>87.704999999999998</v>
       </c>
       <c r="E4">
-        <v>286.86</v>
+        <v>585.66600000000005</v>
       </c>
       <c r="F4">
-        <v>1113.8869999999999</v>
-      </c>
-      <c r="I4">
-        <v>1445.799</v>
-      </c>
-      <c r="J4">
-        <v>1280.039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1372.9190000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6626,25 +4753,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>793.07199999999989</v>
+        <v>713.76599999999996</v>
       </c>
       <c r="D5">
-        <v>164.15</v>
+        <v>147.73500000000001</v>
       </c>
       <c r="E5">
-        <v>656.6</v>
+        <v>295.47000000000003</v>
       </c>
       <c r="F5">
-        <v>1449.672</v>
-      </c>
-      <c r="I5">
-        <v>1526.6189999999999</v>
-      </c>
-      <c r="J5">
-        <v>1324.9190000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1009.236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6652,25 +4773,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>765.04499999999985</v>
+        <v>707.00800000000004</v>
       </c>
       <c r="D6">
-        <v>111.82</v>
+        <v>104.864</v>
       </c>
       <c r="E6">
-        <v>353.1</v>
+        <v>521.90599999999995</v>
       </c>
       <c r="F6">
-        <v>1118.145</v>
-      </c>
-      <c r="I6">
-        <v>1869.171</v>
-      </c>
-      <c r="J6">
-        <v>1696.191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1228.914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6678,25 +4793,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>765.04499999999985</v>
+        <v>707.00800000000004</v>
       </c>
       <c r="D7">
-        <v>111.82</v>
+        <v>104.864</v>
       </c>
       <c r="E7">
-        <v>353.1</v>
+        <v>941.36199999999997</v>
       </c>
       <c r="F7">
-        <v>1118.145</v>
-      </c>
-      <c r="I7">
-        <v>1471.2919999999999</v>
-      </c>
-      <c r="J7">
-        <v>1296.0719999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1648.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6704,25 +4813,19 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>764.23099999999999</v>
+        <v>706.27499999999986</v>
       </c>
       <c r="D8">
-        <v>97.66</v>
+        <v>92.322999999999993</v>
       </c>
       <c r="E8">
-        <v>268.42</v>
+        <v>659.91599999999983</v>
       </c>
       <c r="F8">
-        <v>1032.6510000000001</v>
-      </c>
-      <c r="I8">
-        <v>1032.6510000000001</v>
-      </c>
-      <c r="J8">
-        <v>764.23099999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1366.191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6730,25 +4833,19 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>765.04499999999985</v>
+        <v>707.00800000000004</v>
       </c>
       <c r="D9">
-        <v>111.82</v>
+        <v>104.864</v>
       </c>
       <c r="E9">
-        <v>353.1</v>
+        <v>312.178</v>
       </c>
       <c r="F9">
-        <v>1118.145</v>
-      </c>
-      <c r="I9">
-        <v>1118.145</v>
-      </c>
-      <c r="J9">
-        <v>765.04499999999985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1019.186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6756,25 +4853,19 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1276.06</v>
+        <v>1148.4559999999999</v>
       </c>
       <c r="D10">
-        <v>113.65</v>
+        <v>102.285</v>
       </c>
       <c r="E10">
-        <v>395.6</v>
+        <v>151.47</v>
       </c>
       <c r="F10">
-        <v>1671.66</v>
-      </c>
-      <c r="I10">
-        <v>1961.3330000000001</v>
-      </c>
-      <c r="J10">
-        <v>1747.693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1299.9259999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6782,25 +4873,19 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>793.07199999999989</v>
+        <v>713.76599999999996</v>
       </c>
       <c r="D11">
-        <v>164.15</v>
+        <v>147.73500000000001</v>
       </c>
       <c r="E11">
-        <v>656.6</v>
+        <v>886.41000000000008</v>
       </c>
       <c r="F11">
-        <v>1449.672</v>
-      </c>
-      <c r="I11">
-        <v>1494.8679999999999</v>
-      </c>
-      <c r="J11">
-        <v>1300.748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1600.1759999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6808,25 +4893,19 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>767.46100000000001</v>
+        <v>710.00599999999986</v>
       </c>
       <c r="D12">
-        <v>114.13</v>
+        <v>102.717</v>
       </c>
       <c r="E12">
-        <v>366.54</v>
+        <v>581.22</v>
       </c>
       <c r="F12">
-        <v>1134.001</v>
-      </c>
-      <c r="I12">
-        <v>1117.9359999999999</v>
-      </c>
-      <c r="J12">
-        <v>741.19600000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1291.2260000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6834,25 +4913,19 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>793.07199999999989</v>
+        <v>713.76599999999996</v>
       </c>
       <c r="D13">
-        <v>164.15</v>
+        <v>147.73500000000001</v>
       </c>
       <c r="E13">
-        <v>656.6</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1449.672</v>
-      </c>
-      <c r="I13">
-        <v>1449.672</v>
-      </c>
-      <c r="J13">
-        <v>793.07199999999989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+        <v>713.76599999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6860,25 +4933,19 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1951.098</v>
+        <v>1755.9880000000001</v>
       </c>
       <c r="D14">
-        <v>69.5</v>
+        <v>62.55</v>
       </c>
       <c r="E14">
-        <v>201.34</v>
+        <v>56.105999999999973</v>
       </c>
       <c r="F14">
-        <v>2152.4380000000001</v>
-      </c>
-      <c r="I14">
-        <v>2239.8310000000001</v>
-      </c>
-      <c r="J14">
-        <v>2100.4110000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1812.0940000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6886,25 +4953,19 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1653.4659999999999</v>
+        <v>1509.7909999999999</v>
       </c>
       <c r="D15">
-        <v>67.739999999999995</v>
+        <v>62.540999999999997</v>
       </c>
       <c r="E15">
-        <v>178.46</v>
+        <v>41.832000000000008</v>
       </c>
       <c r="F15">
-        <v>1831.9259999999999</v>
-      </c>
-      <c r="I15">
-        <v>1831.9259999999999</v>
-      </c>
-      <c r="J15">
-        <v>1653.4659999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1551.623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6912,25 +4973,19 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1189.4839999999999</v>
+        <v>1031.6410000000001</v>
       </c>
       <c r="D16">
-        <v>93.27</v>
+        <v>88.245000000000005</v>
       </c>
       <c r="E16">
-        <v>271.10000000000002</v>
+        <v>92.934000000000026</v>
       </c>
       <c r="F16">
-        <v>1460.5840000000001</v>
-      </c>
-      <c r="I16">
-        <v>1484.5609999999999</v>
-      </c>
-      <c r="J16">
-        <v>1301.941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1124.575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6938,25 +4993,19 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1677.6369999999999</v>
+        <v>1509.874</v>
       </c>
       <c r="D17">
-        <v>115.75</v>
+        <v>104.175</v>
       </c>
       <c r="E17">
-        <v>463</v>
+        <v>1.4210854715202001E-14</v>
       </c>
       <c r="F17">
-        <v>2140.6370000000002</v>
-      </c>
-      <c r="I17">
-        <v>2140.6370000000002</v>
-      </c>
-      <c r="J17">
-        <v>1677.6369999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1509.874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6964,25 +5013,19 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1541.93</v>
+        <v>1276.9849999999999</v>
       </c>
       <c r="D18">
-        <v>94.01</v>
+        <v>88.641000000000005</v>
       </c>
       <c r="E18">
-        <v>287.60000000000002</v>
+        <v>108.288</v>
       </c>
       <c r="F18">
-        <v>1829.53</v>
-      </c>
-      <c r="I18">
-        <v>2002.0340000000001</v>
-      </c>
-      <c r="J18">
-        <v>1815.854</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1385.2729999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6990,25 +5033,19 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1129.979</v>
+        <v>1035.4480000000001</v>
       </c>
       <c r="D19">
-        <v>94.01</v>
+        <v>88.641000000000005</v>
       </c>
       <c r="E19">
-        <v>283.22000000000003</v>
+        <v>281.23200000000003</v>
       </c>
       <c r="F19">
-        <v>1413.1990000000001</v>
-      </c>
-      <c r="I19">
-        <v>1489.364</v>
-      </c>
-      <c r="J19">
-        <v>1296.8040000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1316.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7016,25 +5053,19 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>770.62900000000002</v>
+        <v>712.0329999999999</v>
       </c>
       <c r="D20">
-        <v>94.01</v>
+        <v>88.641000000000005</v>
       </c>
       <c r="E20">
-        <v>245.26</v>
+        <v>297.89999999999992</v>
       </c>
       <c r="F20">
-        <v>1015.889</v>
-      </c>
-      <c r="I20">
-        <v>1015.889</v>
-      </c>
-      <c r="J20">
-        <v>770.62900000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1009.933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7042,25 +5073,19 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>768.23099999999999</v>
+        <v>709.87499999999989</v>
       </c>
       <c r="D21">
-        <v>159.22</v>
+        <v>147.33000000000001</v>
       </c>
       <c r="E21">
-        <v>636.88000000000011</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1405.1110000000001</v>
-      </c>
-      <c r="I21">
-        <v>1405.1110000000001</v>
-      </c>
-      <c r="J21">
-        <v>768.23099999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+        <v>709.87499999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7068,25 +5093,19 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2373.8719999999989</v>
+        <v>2136.4839999999999</v>
       </c>
       <c r="D22">
-        <v>96.31</v>
+        <v>86.679000000000002</v>
       </c>
       <c r="E22">
-        <v>385.24</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F22">
-        <v>2759.1119999999992</v>
-      </c>
-      <c r="I22">
-        <v>2759.1119999999992</v>
-      </c>
-      <c r="J22">
-        <v>2373.8719999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+        <v>2136.4839999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7094,25 +5113,19 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1658.5519999999999</v>
+        <v>1514.3679999999999</v>
       </c>
       <c r="D23">
-        <v>114.15</v>
+        <v>104.31</v>
       </c>
       <c r="E23">
-        <v>456.6</v>
+        <v>-8.5265128291212022E-14</v>
       </c>
       <c r="F23">
-        <v>2115.152</v>
-      </c>
-      <c r="I23">
-        <v>2115.152</v>
-      </c>
-      <c r="J23">
-        <v>1658.5519999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+        <v>1514.3679999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7120,27 +5133,20 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>771.48700000000008</v>
+        <v>714.3</v>
       </c>
       <c r="D24">
-        <v>159.33000000000001</v>
+        <v>147.69900000000001</v>
       </c>
       <c r="E24">
-        <v>637.32000000000005</v>
+        <v>-1.4210854715202001E-13</v>
       </c>
       <c r="F24">
-        <v>1408.807</v>
-      </c>
-      <c r="I24">
-        <v>1408.807</v>
-      </c>
-      <c r="J24">
-        <v>771.48700000000008</v>
+        <v>714.29999999999984</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7148,9 +5154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
@@ -7179,16 +5183,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1387.066</v>
+        <v>1379.9280000000001</v>
       </c>
       <c r="D2">
-        <v>100.435</v>
+        <v>104.98</v>
       </c>
       <c r="E2">
-        <v>342.25799999999998</v>
+        <v>359.64</v>
       </c>
       <c r="F2">
-        <v>1729.3240000000001</v>
+        <v>1739.568</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -7199,16 +5203,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1330.54</v>
+        <v>1251.21</v>
       </c>
       <c r="D3">
-        <v>103.999</v>
+        <v>106.27</v>
       </c>
       <c r="E3">
-        <v>343.64</v>
+        <v>358.74</v>
       </c>
       <c r="F3">
-        <v>1674.18</v>
+        <v>1609.95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -7219,16 +5223,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>815.06600000000014</v>
+        <v>874.72399999999993</v>
       </c>
       <c r="D4">
-        <v>91.986999999999995</v>
+        <v>97.45</v>
       </c>
       <c r="E4">
-        <v>255.49799999999999</v>
+        <v>267.54000000000002</v>
       </c>
       <c r="F4">
-        <v>1070.5640000000001</v>
+        <v>1142.2639999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
@@ -7239,16 +5243,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>734.11399999999992</v>
+        <v>793.07199999999989</v>
       </c>
       <c r="D5">
-        <v>152.04900000000001</v>
+        <v>164.15</v>
       </c>
       <c r="E5">
-        <v>608.19600000000003</v>
+        <v>328.3</v>
       </c>
       <c r="F5">
-        <v>1342.31</v>
+        <v>1121.3720000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -7259,16 +5263,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>700.91600000000005</v>
+        <v>785.56299999999987</v>
       </c>
       <c r="D6">
-        <v>103.449</v>
+        <v>116.3</v>
       </c>
       <c r="E6">
-        <v>329.47800000000001</v>
+        <v>371.02</v>
       </c>
       <c r="F6">
-        <v>1030.394</v>
+        <v>1156.5830000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -7279,16 +5283,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>696.67000000000007</v>
+        <v>785.56299999999987</v>
       </c>
       <c r="D7">
-        <v>103.65900000000001</v>
+        <v>116.3</v>
       </c>
       <c r="E7">
-        <v>332.36599999999999</v>
+        <v>371.02</v>
       </c>
       <c r="F7">
-        <v>1029.0360000000001</v>
+        <v>1156.5830000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -7299,16 +5303,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>685.93600000000015</v>
+        <v>784.74900000000002</v>
       </c>
       <c r="D8">
-        <v>88.346999999999994</v>
+        <v>102.14</v>
       </c>
       <c r="E8">
-        <v>245.31399999999999</v>
+        <v>286.33999999999997</v>
       </c>
       <c r="F8">
-        <v>931.25000000000011</v>
+        <v>1071.0889999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -7319,16 +5323,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>700.93200000000002</v>
+        <v>785.56299999999987</v>
       </c>
       <c r="D9">
-        <v>102.289</v>
+        <v>116.3</v>
       </c>
       <c r="E9">
-        <v>322.77999999999997</v>
+        <v>138.41999999999999</v>
       </c>
       <c r="F9">
-        <v>1023.712</v>
+        <v>923.98299999999995</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -7339,16 +5343,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1290.972</v>
+        <v>1276.06</v>
       </c>
       <c r="D10">
-        <v>107.669</v>
+        <v>113.65</v>
       </c>
       <c r="E10">
-        <v>368.10599999999999</v>
+        <v>168.3</v>
       </c>
       <c r="F10">
-        <v>1659.078</v>
+        <v>1444.36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
@@ -7359,16 +5363,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>747.62399999999991</v>
+        <v>793.07199999999989</v>
       </c>
       <c r="D11">
-        <v>154.65899999999999</v>
+        <v>164.15</v>
       </c>
       <c r="E11">
-        <v>618.63599999999997</v>
+        <v>328.3</v>
       </c>
       <c r="F11">
-        <v>1366.26</v>
+        <v>1121.3720000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -7379,16 +5383,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>717.39599999999996</v>
+        <v>788.89300000000003</v>
       </c>
       <c r="D12">
-        <v>103.768</v>
+        <v>114.13</v>
       </c>
       <c r="E12">
-        <v>325.09199999999998</v>
+        <v>129.16</v>
       </c>
       <c r="F12">
-        <v>1042.4880000000001</v>
+        <v>918.053</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -7399,16 +5403,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>759.41</v>
+        <v>793.07199999999989</v>
       </c>
       <c r="D13">
-        <v>157.18899999999999</v>
+        <v>164.15</v>
       </c>
       <c r="E13">
-        <v>628.75599999999997</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1388.1659999999999</v>
+        <v>793.07199999999989</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
@@ -7419,16 +5423,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1855.8520000000001</v>
+        <v>1951.098</v>
       </c>
       <c r="D14">
-        <v>65.263000000000005</v>
+        <v>69.5</v>
       </c>
       <c r="E14">
-        <v>187</v>
+        <v>62.34</v>
       </c>
       <c r="F14">
-        <v>2042.8520000000001</v>
+        <v>2013.4380000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
@@ -7439,16 +5443,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1538.6479999999999</v>
+        <v>1677.546</v>
       </c>
       <c r="D15">
-        <v>63.462000000000003</v>
+        <v>69.489999999999995</v>
       </c>
       <c r="E15">
-        <v>168.66200000000001</v>
+        <v>46.47999999999999</v>
       </c>
       <c r="F15">
-        <v>1707.31</v>
+        <v>1724.0260000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
@@ -7459,16 +5463,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1163.586</v>
+        <v>1146.2670000000001</v>
       </c>
       <c r="D16">
-        <v>86.063999999999993</v>
+        <v>98.05</v>
       </c>
       <c r="E16">
-        <v>240.78599999999989</v>
+        <v>103.26</v>
       </c>
       <c r="F16">
-        <v>1404.3720000000001</v>
+        <v>1249.527</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
@@ -7479,16 +5483,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1610.567</v>
+        <v>1677.6369999999999</v>
       </c>
       <c r="D17">
-        <v>111.334</v>
+        <v>115.75</v>
       </c>
       <c r="E17">
-        <v>445.33600000000001</v>
+        <v>-2.8421709430404007E-14</v>
       </c>
       <c r="F17">
-        <v>2055.9029999999998</v>
+        <v>1677.6369999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
@@ -7499,16 +5503,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>1522.915</v>
+        <v>1418.8720000000001</v>
       </c>
       <c r="D18">
-        <v>88.400999999999996</v>
+        <v>98.49</v>
       </c>
       <c r="E18">
-        <v>264.40800000000002</v>
+        <v>120.32</v>
       </c>
       <c r="F18">
-        <v>1787.3230000000001</v>
+        <v>1539.192</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
@@ -7519,16 +5523,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1162.116</v>
+        <v>1150.4970000000001</v>
       </c>
       <c r="D19">
-        <v>88.037999999999997</v>
+        <v>98.49</v>
       </c>
       <c r="E19">
-        <v>250.274</v>
+        <v>104.16</v>
       </c>
       <c r="F19">
-        <v>1412.39</v>
+        <v>1254.6569999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
@@ -7539,16 +5543,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>710.83899999999994</v>
+        <v>791.14700000000005</v>
       </c>
       <c r="D20">
-        <v>86.123999999999995</v>
+        <v>98.49</v>
       </c>
       <c r="E20">
-        <v>222.30799999999999</v>
+        <v>66.199999999999989</v>
       </c>
       <c r="F20">
-        <v>933.14699999999993</v>
+        <v>857.34699999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
@@ -7559,16 +5563,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>702.59399999999994</v>
+        <v>788.74900000000002</v>
       </c>
       <c r="D21">
-        <v>145.50200000000001</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="E21">
-        <v>582.00800000000004</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1284.6020000000001</v>
+        <v>788.74900000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
@@ -7579,16 +5583,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2313.5030000000002</v>
+        <v>2373.8719999999989</v>
       </c>
       <c r="D22">
-        <v>93.887</v>
+        <v>96.31</v>
       </c>
       <c r="E22">
-        <v>375.548</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F22">
-        <v>2689.0509999999999</v>
+        <v>2373.8719999999989</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
@@ -7599,16 +5603,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>1613.7090000000001</v>
+        <v>1682.6320000000001</v>
       </c>
       <c r="D23">
-        <v>110.977</v>
+        <v>115.9</v>
       </c>
       <c r="E23">
-        <v>443.90800000000002</v>
+        <v>-1.4210854715202001E-14</v>
       </c>
       <c r="F23">
-        <v>2057.6170000000002</v>
+        <v>1682.6320000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
@@ -7619,20 +5623,999 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>713.6400000000001</v>
+        <v>793.66699999999992</v>
       </c>
       <c r="D24">
-        <v>147.37899999999999</v>
+        <v>164.11</v>
       </c>
       <c r="E24">
-        <v>589.51599999999996</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1303.1559999999999</v>
+        <v>793.66699999999992</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1379.9280000000001</v>
+      </c>
+      <c r="D2">
+        <v>104.98</v>
+      </c>
+      <c r="E2">
+        <v>359.64</v>
+      </c>
+      <c r="F2">
+        <v>1739.568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1251.21</v>
+      </c>
+      <c r="D3">
+        <v>106.27</v>
+      </c>
+      <c r="E3">
+        <v>642.41999999999996</v>
+      </c>
+      <c r="F3">
+        <v>1893.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>874.72399999999993</v>
+      </c>
+      <c r="D4">
+        <v>97.45</v>
+      </c>
+      <c r="E4">
+        <v>650.74</v>
+      </c>
+      <c r="F4">
+        <v>1525.4639999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>793.07199999999989</v>
+      </c>
+      <c r="D5">
+        <v>164.15</v>
+      </c>
+      <c r="E5">
+        <v>328.3</v>
+      </c>
+      <c r="F5">
+        <v>1121.3720000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>785.56299999999987</v>
+      </c>
+      <c r="D6">
+        <v>116.3</v>
+      </c>
+      <c r="E6">
+        <v>577.74</v>
+      </c>
+      <c r="F6">
+        <v>1363.3030000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>785.56299999999987</v>
+      </c>
+      <c r="D7">
+        <v>116.3</v>
+      </c>
+      <c r="E7">
+        <v>1042.94</v>
+      </c>
+      <c r="F7">
+        <v>1828.5029999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>784.74900000000002</v>
+      </c>
+      <c r="D8">
+        <v>102.14</v>
+      </c>
+      <c r="E8">
+        <v>725.30000000000007</v>
+      </c>
+      <c r="F8">
+        <v>1510.049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>785.56299999999987</v>
+      </c>
+      <c r="D9">
+        <v>116.3</v>
+      </c>
+      <c r="E9">
+        <v>345.14</v>
+      </c>
+      <c r="F9">
+        <v>1130.703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1276.06</v>
+      </c>
+      <c r="D10">
+        <v>113.65</v>
+      </c>
+      <c r="E10">
+        <v>168.3</v>
+      </c>
+      <c r="F10">
+        <v>1444.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>793.07199999999989</v>
+      </c>
+      <c r="D11">
+        <v>164.15</v>
+      </c>
+      <c r="E11">
+        <v>984.90000000000009</v>
+      </c>
+      <c r="F11">
+        <v>1777.972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>788.89300000000003</v>
+      </c>
+      <c r="D12">
+        <v>114.13</v>
+      </c>
+      <c r="E12">
+        <v>645.79999999999995</v>
+      </c>
+      <c r="F12">
+        <v>1434.693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>793.07199999999989</v>
+      </c>
+      <c r="D13">
+        <v>164.15</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>793.07199999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1951.098</v>
+      </c>
+      <c r="D14">
+        <v>69.5</v>
+      </c>
+      <c r="E14">
+        <v>62.34</v>
+      </c>
+      <c r="F14">
+        <v>2013.4380000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1677.546</v>
+      </c>
+      <c r="D15">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="E15">
+        <v>46.47999999999999</v>
+      </c>
+      <c r="F15">
+        <v>1724.0260000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1146.2670000000001</v>
+      </c>
+      <c r="D16">
+        <v>98.05</v>
+      </c>
+      <c r="E16">
+        <v>103.25999999999991</v>
+      </c>
+      <c r="F16">
+        <v>1249.527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1677.6369999999999</v>
+      </c>
+      <c r="D17">
+        <v>115.75</v>
+      </c>
+      <c r="E17">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="F17">
+        <v>1677.6369999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1418.8720000000001</v>
+      </c>
+      <c r="D18">
+        <v>98.49</v>
+      </c>
+      <c r="E18">
+        <v>120.32</v>
+      </c>
+      <c r="F18">
+        <v>1539.192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1150.4970000000001</v>
+      </c>
+      <c r="D19">
+        <v>98.49</v>
+      </c>
+      <c r="E19">
+        <v>312.4799999999999</v>
+      </c>
+      <c r="F19">
+        <v>1462.9770000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>791.14700000000005</v>
+      </c>
+      <c r="D20">
+        <v>98.49</v>
+      </c>
+      <c r="E20">
+        <v>330.99999999999989</v>
+      </c>
+      <c r="F20">
+        <v>1122.1469999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>788.74900000000002</v>
+      </c>
+      <c r="D21">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>788.74900000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2373.8719999999989</v>
+      </c>
+      <c r="D22">
+        <v>96.31</v>
+      </c>
+      <c r="E22">
+        <v>-1.4210854715202001E-14</v>
+      </c>
+      <c r="F22">
+        <v>2373.8719999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1682.6320000000001</v>
+      </c>
+      <c r="D23">
+        <v>115.9</v>
+      </c>
+      <c r="E23">
+        <v>-4.2632564145606011E-14</v>
+      </c>
+      <c r="F23">
+        <v>1682.6320000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>793.66699999999992</v>
+      </c>
+      <c r="D24">
+        <v>164.11</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>793.66699999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1108.8330000000001</v>
+      </c>
+      <c r="D2">
+        <v>101.989</v>
+      </c>
+      <c r="E2">
+        <v>340.178</v>
+      </c>
+      <c r="F2">
+        <v>1449.011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1006.479</v>
+      </c>
+      <c r="D3">
+        <v>105.047</v>
+      </c>
+      <c r="E3">
+        <v>348.96</v>
+      </c>
+      <c r="F3">
+        <v>1355.4390000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>824.18399999999986</v>
+      </c>
+      <c r="D4">
+        <v>90.75</v>
+      </c>
+      <c r="E4">
+        <v>245.45599999999999</v>
+      </c>
+      <c r="F4">
+        <v>1069.6400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>748.36099999999999</v>
+      </c>
+      <c r="D5">
+        <v>154.71799999999999</v>
+      </c>
+      <c r="E5">
+        <v>309.43599999999998</v>
+      </c>
+      <c r="F5">
+        <v>1057.797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>741.43300000000011</v>
+      </c>
+      <c r="D6">
+        <v>109.36799999999999</v>
+      </c>
+      <c r="E6">
+        <v>348.17</v>
+      </c>
+      <c r="F6">
+        <v>1089.6030000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>741.43300000000011</v>
+      </c>
+      <c r="D7">
+        <v>109.36799999999999</v>
+      </c>
+      <c r="E7">
+        <v>348.17</v>
+      </c>
+      <c r="F7">
+        <v>1089.6030000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>740.63799999999992</v>
+      </c>
+      <c r="D8">
+        <v>96.132000000000005</v>
+      </c>
+      <c r="E8">
+        <v>269.024</v>
+      </c>
+      <c r="F8">
+        <v>1009.662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>741.43300000000011</v>
+      </c>
+      <c r="D9">
+        <v>109.36799999999999</v>
+      </c>
+      <c r="E9">
+        <v>129.434</v>
+      </c>
+      <c r="F9">
+        <v>870.86700000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1018.768</v>
+      </c>
+      <c r="D10">
+        <v>105.919</v>
+      </c>
+      <c r="E10">
+        <v>142.95400000000001</v>
+      </c>
+      <c r="F10">
+        <v>1161.722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>748.36099999999999</v>
+      </c>
+      <c r="D11">
+        <v>154.71799999999999</v>
+      </c>
+      <c r="E11">
+        <v>309.43599999999998</v>
+      </c>
+      <c r="F11">
+        <v>1057.797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>744.33800000000008</v>
+      </c>
+      <c r="D12">
+        <v>106.267</v>
+      </c>
+      <c r="E12">
+        <v>116.536</v>
+      </c>
+      <c r="F12">
+        <v>860.87400000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>748.36099999999999</v>
+      </c>
+      <c r="D13">
+        <v>154.71799999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="F13">
+        <v>748.36099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>1782.134</v>
+      </c>
+      <c r="D14">
+        <v>64.453000000000003</v>
+      </c>
+      <c r="E14">
+        <v>51.286000000000001</v>
+      </c>
+      <c r="F14">
+        <v>1833.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1583.5050000000001</v>
+      </c>
+      <c r="D15">
+        <v>64.453999999999994</v>
+      </c>
+      <c r="E15">
+        <v>39.59999999999998</v>
+      </c>
+      <c r="F15">
+        <v>1623.105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1084.3309999999999</v>
+      </c>
+      <c r="D16">
+        <v>91.856999999999999</v>
+      </c>
+      <c r="E16">
+        <v>95.433999999999969</v>
+      </c>
+      <c r="F16">
+        <v>1179.7650000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1498.644</v>
+      </c>
+      <c r="D17">
+        <v>113.845</v>
+      </c>
+      <c r="E17">
+        <v>-1.4210854715202001E-14</v>
+      </c>
+      <c r="F17">
+        <v>1498.644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1223.538</v>
+      </c>
+      <c r="D18">
+        <v>91.344999999999999</v>
+      </c>
+      <c r="E18">
+        <v>100.75</v>
+      </c>
+      <c r="F18">
+        <v>1324.288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1094.0730000000001</v>
+      </c>
+      <c r="D19">
+        <v>91.344999999999999</v>
+      </c>
+      <c r="E19">
+        <v>93.053999999999959</v>
+      </c>
+      <c r="F19">
+        <v>1187.127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>746.82699999999988</v>
+      </c>
+      <c r="D20">
+        <v>91.344999999999999</v>
+      </c>
+      <c r="E20">
+        <v>56.399999999999963</v>
+      </c>
+      <c r="F20">
+        <v>803.22699999999986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>744.45799999999997</v>
+      </c>
+      <c r="D21">
+        <v>154.31100000000001</v>
+      </c>
+      <c r="E21">
+        <v>-2.8421709430404007E-14</v>
+      </c>
+      <c r="F21">
+        <v>744.45799999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2109.4409999999998</v>
+      </c>
+      <c r="D22">
+        <v>94.894999999999996</v>
+      </c>
+      <c r="E22">
+        <v>-1.4210854715202001E-14</v>
+      </c>
+      <c r="F22">
+        <v>2109.4409999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1500.08</v>
+      </c>
+      <c r="D23">
+        <v>113.792</v>
+      </c>
+      <c r="E23">
+        <v>1.4210854715202001E-14</v>
+      </c>
+      <c r="F23">
+        <v>1500.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>748.91599999999983</v>
+      </c>
+      <c r="D24">
+        <v>154.678</v>
+      </c>
+      <c r="E24">
+        <v>2.8421709430404007E-14</v>
+      </c>
+      <c r="F24">
+        <v>748.91599999999983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>